--- a/biology/Médecine/Grand_muscle_de_l'hélix/Grand_muscle_de_l'hélix.xlsx
+++ b/biology/Médecine/Grand_muscle_de_l'hélix/Grand_muscle_de_l'hélix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_muscle_de_l%27h%C3%A9lix</t>
+          <t>Grand_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand muscle de l'hélix  est un muscle peaucier du pavillon de l'oreille.
 Il a  la forme d'une étroite bande verticale située sur le bord antérieur de l'hélix, là où elle devient transversale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_muscle_de_l%27h%C3%A9lix</t>
+          <t>Grand_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Le grand muscle de l'hélix nait sur l'épine de l'hélix.
-Trajet
-Les fibres musculaires monte légèrement en arrière.
-Terminaison
-Le muscle se termine sur la fosse triangulaire de l'anthélix.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand muscle de l'hélix nait sur l'épine de l'hélix.
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_muscle_de_l%27h%C3%A9lix</t>
+          <t>Grand_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par une branche temporo-faciale du nerf facial.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres musculaires monte légèrement en arrière.
 </t>
         </is>
       </c>
@@ -561,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_muscle_de_l%27h%C3%A9lix</t>
+          <t>Grand_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce muscle a très peu d'action chez l'homme, il permet d'ajuster la forme de l'oreille en effaçant la portion ascendante de l'hélix et augmente l'ouverture du méat auriculaire.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle se termine sur la fosse triangulaire de l'anthélix.
 </t>
         </is>
       </c>
@@ -592,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grand_muscle_de_l%27h%C3%A9lix</t>
+          <t>Grand_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +632,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Embryologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grand muscle de l'hélix est dérivée du développement du deuxième arc branchial.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par une branche temporo-faciale du nerf facial.
 </t>
         </is>
       </c>
@@ -623,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grand_muscle_de_l%27h%C3%A9lix</t>
+          <t>Grand_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,12 +665,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce muscle a très peu d'action chez l'homme, il permet d'ajuster la forme de l'oreille en effaçant la portion ascendante de l'hélix et augmente l'ouverture du méat auriculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_muscle_de_l'hélix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_muscle_de_l%27h%C3%A9lix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Embryologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand muscle de l'hélix est dérivée du développement du deuxième arc branchial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand_muscle_de_l'hélix</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_muscle_de_l%27h%C3%A9lix</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il semble que ce n'est que chez les primates que le grand muscle de l'hélix et le petit muscle de l'hélix soient deux muscles distincts[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il semble que ce n'est que chez les primates que le grand muscle de l'hélix et le petit muscle de l'hélix soient deux muscles distincts.
 </t>
         </is>
       </c>
